--- a/docs/Klassenmodell.xlsx
+++ b/docs/Klassenmodell.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>readWikis()</t>
   </si>
@@ -49,6 +49,72 @@
   </si>
   <si>
     <t>class WikiService</t>
+  </si>
+  <si>
+    <t>class RequestHandler</t>
+  </si>
+  <si>
+    <t>$request</t>
+  </si>
+  <si>
+    <t>$class_name</t>
+  </si>
+  <si>
+    <t>$command</t>
+  </si>
+  <si>
+    <t>$result</t>
+  </si>
+  <si>
+    <t>handleRequest()</t>
+  </si>
+  <si>
+    <t>class Wiki</t>
+  </si>
+  <si>
+    <t>$id</t>
+  </si>
+  <si>
+    <t>$category</t>
+  </si>
+  <si>
+    <t>$title_id</t>
+  </si>
+  <si>
+    <t>$title</t>
+  </si>
+  <si>
+    <t>$version</t>
+  </si>
+  <si>
+    <t>$notes</t>
+  </si>
+  <si>
+    <t>$author</t>
+  </si>
+  <si>
+    <t>$creation_date</t>
+  </si>
+  <si>
+    <t>$expiration_date</t>
+  </si>
+  <si>
+    <t>class GetWikiCommand</t>
+  </si>
+  <si>
+    <t>execute()</t>
+  </si>
+  <si>
+    <t>$wiki_service</t>
+  </si>
+  <si>
+    <t>$wiki</t>
+  </si>
+  <si>
+    <t>class GetWikisCommand</t>
+  </si>
+  <si>
+    <t>$wikis</t>
   </si>
 </sst>
 </file>
@@ -441,70 +507,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:B16"/>
+  <dimension ref="B6:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D12" sqref="D12:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Klassenmodell.xlsx
+++ b/docs/Klassenmodell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="28515" windowHeight="12015"/>
+    <workbookView xWindow="120" yWindow="195" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>readWikis()</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>$wikis</t>
+  </si>
+  <si>
+    <t>class CreateWikiCommand</t>
   </si>
 </sst>
 </file>
@@ -509,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -601,72 +604,86 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>

--- a/docs/Klassenmodell.xlsx
+++ b/docs/Klassenmodell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="192" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>readWikis()</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>class CreateWikiCommand</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>Klasse</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Methoden</t>
   </si>
 </sst>
 </file>
@@ -198,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +220,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,19 +531,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:D34"/>
+  <dimension ref="B6:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -530,44 +551,56 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -575,7 +608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -583,7 +616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
@@ -591,7 +624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -599,17 +632,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
@@ -617,7 +650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -625,7 +658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
@@ -633,67 +666,67 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
@@ -710,7 +743,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -722,7 +755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Klassenmodell.xlsx
+++ b/docs/Klassenmodell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="192" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="195" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>readWikis()</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Methoden</t>
+  </si>
+  <si>
+    <t>class UpdateWikiCommand</t>
   </si>
 </sst>
 </file>
@@ -534,13 +537,13 @@
   <dimension ref="B6:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D22" sqref="D22:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -675,15 +678,29 @@
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +760,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -755,7 +772,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
